--- a/livia/CO2_methane_data.xlsx
+++ b/livia/CO2_methane_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\SummerProject\livia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C4C5026-6FB5-4F00-8D9F-97E266EE0A15}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B8BCAB-7701-4D4E-906A-5C6FE03F43D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{64AA4A88-3927-41FF-A569-92EA58967DA2}"/>
   </bookViews>
@@ -7154,7 +7154,7 @@
   <dimension ref="A1:M519"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D129" sqref="D129"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
